--- a/Timekeeping/2024/12-24/JOSEPH R 12-24.xlsx
+++ b/Timekeeping/2024/12-24/JOSEPH R 12-24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Timekeeping\12-24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/095d5c38fd0987cc/RWA/1901/Eric's Billing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B61D4D-EDA0-4BC6-A95D-CCE4AC804BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{21B61D4D-EDA0-4BC6-A95D-CCE4AC804BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{255C617F-110C-4372-836D-57EDADDF96CF}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="18700" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="63">
   <si>
     <t>NAME</t>
   </si>
@@ -214,9 +214,6 @@
   </si>
   <si>
     <t>Quadreal - Maplewood</t>
-  </si>
-  <si>
-    <t>DP</t>
   </si>
   <si>
     <t>2411</t>
@@ -1215,7 +1212,7 @@
   <dimension ref="A1:GH120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AH46" sqref="AH46"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1415,7 +1412,7 @@
       </c>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="77" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK3" s="3"/>
       <c r="AL3" s="3"/>
@@ -2117,10 +2114,10 @@
     </row>
     <row r="8" spans="1:190" s="39" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="34" t="s">
         <v>60</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>61</v>
       </c>
       <c r="C8" s="35" t="s">
         <v>44</v>
@@ -2854,7 +2851,7 @@
         <v>58</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="D14" s="36" t="s">
         <v>20</v>
@@ -5114,7 +5111,7 @@
         <v>26.5</v>
       </c>
       <c r="AJ28" s="52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK28" s="3"/>
       <c r="AL28" s="3"/>
